--- a/Data/Processed/Angiosperms/missing_powo_ipni/Dioscoreaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Dioscoreaceae.xlsx
@@ -2302,7 +2302,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 221, fig. 8, 9. 1908 </t>
+          <t>Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 221, fig. 8, 9. 1908</t>
         </is>
       </c>
       <c r="J130" t="b">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Encycl. [J. Lamarck &amp; al.] Suppl. 3. 139. 1813 [24 Sep 1813] </t>
+          <t>Encycl. [J. Lamarck &amp; al.] Suppl. 3. 139. 1813 [24 Sep 1813]</t>
         </is>
       </c>
       <c r="J131" t="b">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7957,7 +7957,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) 4, Fam. 43: 84. 1924 </t>
+          <t>Pflanzenr. (Engler) 4, Fam. 43: 84. 1924</t>
         </is>
       </c>
       <c r="J132" t="b">
@@ -8025,7 +8025,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Biol. Cent.-Amer., Bot. 3[4]: 355 (-356). 1884 [Feb 1884] </t>
+          <t>Biol. Cent.-Amer., Bot. 3[4]: 355 (-356). 1884 [Feb 1884]</t>
         </is>
       </c>
       <c r="J133" t="b">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Notizbl. Bot. Gart. Berlin-Dahlem 7: 187. 1917 </t>
+          <t>Notizbl. Bot. Gart. Berlin-Dahlem 7: 187. 1917</t>
         </is>
       </c>
       <c r="J135" t="b">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wochenschr. Vereines Beförd. Gartenbaues Konigl. Preuss. Staaten 14(20): 158. 1871 [20 May 1871] </t>
+          <t>Wochenschr. Vereines Beförd. Gartenbaues Konigl. Preuss. Staaten 14(20): 158. 1871 [20 May 1871]</t>
         </is>
       </c>
       <c r="J137" t="b">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) 4, Fam. 43: 76. 1924 </t>
+          <t>Pflanzenr. (Engler) 4, Fam. 43: 76. 1924</t>
         </is>
       </c>
       <c r="J138" t="b">
